--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/97/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/97/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>2.0454</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>2045.4</v>
       </c>
     </row>
     <row r="5">
@@ -488,21 +488,21 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>2.74838</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>2748.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12401</v>
       </c>
       <c r="B6" t="n">
-        <v>4.34109</v>
+        <v>3.26382</v>
       </c>
       <c r="C6" t="n">
-        <v>4341.09</v>
+        <v>3263.82</v>
       </c>
     </row>
     <row r="7">
@@ -510,1055 +510,1055 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>4.903510000000001</v>
+        <v>3.73615</v>
       </c>
       <c r="C7" t="n">
-        <v>4903.51</v>
+        <v>3736.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.186017</v>
       </c>
       <c r="B8" t="n">
-        <v>5.54466</v>
+        <v>4.10603</v>
       </c>
       <c r="C8" t="n">
-        <v>5544.66</v>
+        <v>4106.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216988</v>
+        <v>0.216993</v>
       </c>
       <c r="B9" t="n">
-        <v>6.06355</v>
+        <v>4.36833</v>
       </c>
       <c r="C9" t="n">
-        <v>6063.55</v>
+        <v>4368.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247913</v>
+        <v>0.247969</v>
       </c>
       <c r="B10" t="n">
-        <v>6.4345</v>
+        <v>4.447220000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>6434.5</v>
+        <v>4447.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278838</v>
+        <v>0.278896</v>
       </c>
       <c r="B11" t="n">
-        <v>6.79314</v>
+        <v>4.43804</v>
       </c>
       <c r="C11" t="n">
-        <v>6793.14</v>
+        <v>4438.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309763</v>
+        <v>0.309821</v>
       </c>
       <c r="B12" t="n">
-        <v>7.0447</v>
+        <v>4.421</v>
       </c>
       <c r="C12" t="n">
-        <v>7044.7</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340688</v>
+        <v>0.340746</v>
       </c>
       <c r="B13" t="n">
-        <v>7.24363</v>
+        <v>4.40174</v>
       </c>
       <c r="C13" t="n">
-        <v>7243.63</v>
+        <v>4401.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371613</v>
+        <v>0.371671</v>
       </c>
       <c r="B14" t="n">
-        <v>7.363720000000001</v>
+        <v>4.381220000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>7363.72</v>
+        <v>4381.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402538</v>
+        <v>0.402596</v>
       </c>
       <c r="B15" t="n">
-        <v>7.41337</v>
+        <v>4.36002</v>
       </c>
       <c r="C15" t="n">
-        <v>7413.37</v>
+        <v>4360.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433463</v>
+        <v>0.433516</v>
       </c>
       <c r="B16" t="n">
-        <v>7.43461</v>
+        <v>4.33838</v>
       </c>
       <c r="C16" t="n">
-        <v>7434.61</v>
+        <v>4338.38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464388</v>
+        <v>0.464441</v>
       </c>
       <c r="B17" t="n">
-        <v>7.44322</v>
+        <v>4.31616</v>
       </c>
       <c r="C17" t="n">
-        <v>7443.22</v>
+        <v>4316.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495313</v>
+        <v>0.495366</v>
       </c>
       <c r="B18" t="n">
-        <v>7.449520000000001</v>
+        <v>4.293270000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>7449.52</v>
+        <v>4293.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526238</v>
+        <v>0.526291</v>
       </c>
       <c r="B19" t="n">
-        <v>7.4541</v>
+        <v>4.26951</v>
       </c>
       <c r="C19" t="n">
-        <v>7454.1</v>
+        <v>4269.51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557163</v>
+        <v>0.557216</v>
       </c>
       <c r="B20" t="n">
-        <v>7.45696</v>
+        <v>4.24353</v>
       </c>
       <c r="C20" t="n">
-        <v>7456.96</v>
+        <v>4243.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5880880000000001</v>
+        <v>0.588141</v>
       </c>
       <c r="B21" t="n">
-        <v>7.45861</v>
+        <v>4.21423</v>
       </c>
       <c r="C21" t="n">
-        <v>7458.61</v>
+        <v>4214.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.61913</v>
+        <v>0.619184</v>
       </c>
       <c r="B22" t="n">
-        <v>7.45917</v>
+        <v>4.18445</v>
       </c>
       <c r="C22" t="n">
-        <v>7459.17</v>
+        <v>4184.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650303</v>
+        <v>0.650361</v>
       </c>
       <c r="B23" t="n">
-        <v>7.458880000000001</v>
+        <v>4.1513</v>
       </c>
       <c r="C23" t="n">
-        <v>7458.88</v>
+        <v>4151.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681476</v>
+        <v>0.6815330000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>7.45774</v>
+        <v>4.11748</v>
       </c>
       <c r="C24" t="n">
-        <v>7457.74</v>
+        <v>4117.48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712653</v>
+        <v>0.712706</v>
       </c>
       <c r="B25" t="n">
-        <v>7.455850000000001</v>
+        <v>4.080719999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>7455.85</v>
+        <v>4080.72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743825</v>
+        <v>0.743883</v>
       </c>
       <c r="B26" t="n">
-        <v>7.4532</v>
+        <v>4.04328</v>
       </c>
       <c r="C26" t="n">
-        <v>7453.2</v>
+        <v>4043.28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775002</v>
+        <v>0.775055</v>
       </c>
       <c r="B27" t="n">
-        <v>7.449890000000001</v>
+        <v>4.00349</v>
       </c>
       <c r="C27" t="n">
-        <v>7449.89</v>
+        <v>4003.49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806175</v>
+        <v>0.8062279999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>7.44595</v>
+        <v>3.96234</v>
       </c>
       <c r="C28" t="n">
-        <v>7445.95</v>
+        <v>3962.34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837347</v>
+        <v>0.837405</v>
       </c>
       <c r="B29" t="n">
-        <v>7.441350000000001</v>
+        <v>3.91972</v>
       </c>
       <c r="C29" t="n">
-        <v>7441.35</v>
+        <v>3919.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868524</v>
+        <v>0.868577</v>
       </c>
       <c r="B30" t="n">
-        <v>7.4362</v>
+        <v>3.87505</v>
       </c>
       <c r="C30" t="n">
-        <v>7436.2</v>
+        <v>3875.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899697</v>
+        <v>0.89975</v>
       </c>
       <c r="B31" t="n">
-        <v>7.43042</v>
+        <v>3.82951</v>
       </c>
       <c r="C31" t="n">
-        <v>7430.42</v>
+        <v>3829.51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9308689999999999</v>
+        <v>0.9309269999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>7.424020000000001</v>
+        <v>3.78197</v>
       </c>
       <c r="C32" t="n">
-        <v>7424.02</v>
+        <v>3781.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962046</v>
+        <v>0.962099</v>
       </c>
       <c r="B33" t="n">
-        <v>7.4171</v>
+        <v>3.73367</v>
       </c>
       <c r="C33" t="n">
-        <v>7417.1</v>
+        <v>3733.67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993219</v>
+        <v>0.993291</v>
       </c>
       <c r="B34" t="n">
-        <v>7.40957</v>
+        <v>3.61886</v>
       </c>
       <c r="C34" t="n">
-        <v>7409.57</v>
+        <v>3618.86</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02453</v>
+        <v>1.02414</v>
       </c>
       <c r="B35" t="n">
-        <v>7.4015</v>
+        <v>3.53639</v>
       </c>
       <c r="C35" t="n">
-        <v>7401.5</v>
+        <v>3536.39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05591</v>
+        <v>1.05518</v>
       </c>
       <c r="B36" t="n">
-        <v>7.39276</v>
+        <v>3.4831</v>
       </c>
       <c r="C36" t="n">
-        <v>7392.76</v>
+        <v>3483.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08729</v>
+        <v>1.08624</v>
       </c>
       <c r="B37" t="n">
-        <v>7.38321</v>
+        <v>3.38778</v>
       </c>
       <c r="C37" t="n">
-        <v>7383.21</v>
+        <v>3387.78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11863</v>
+        <v>1.11717</v>
       </c>
       <c r="B38" t="n">
-        <v>7.37279</v>
+        <v>3.3529</v>
       </c>
       <c r="C38" t="n">
-        <v>7372.79</v>
+        <v>3352.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1496</v>
+        <v>1.1481</v>
       </c>
       <c r="B39" t="n">
-        <v>7.36174</v>
+        <v>3.30679</v>
       </c>
       <c r="C39" t="n">
-        <v>7361.74</v>
+        <v>3306.79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18056</v>
+        <v>1.17904</v>
       </c>
       <c r="B40" t="n">
-        <v>7.35007</v>
+        <v>3.27484</v>
       </c>
       <c r="C40" t="n">
-        <v>7350.07</v>
+        <v>3274.84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21153</v>
+        <v>1.20997</v>
       </c>
       <c r="B41" t="n">
-        <v>7.33778</v>
+        <v>3.22936</v>
       </c>
       <c r="C41" t="n">
-        <v>7337.78</v>
+        <v>3229.36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.2425</v>
+        <v>1.2409</v>
       </c>
       <c r="B42" t="n">
-        <v>7.32486</v>
+        <v>3.25037</v>
       </c>
       <c r="C42" t="n">
-        <v>7324.86</v>
+        <v>3250.37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27347</v>
+        <v>1.27184</v>
       </c>
       <c r="B43" t="n">
-        <v>7.311350000000001</v>
+        <v>3.17663</v>
       </c>
       <c r="C43" t="n">
-        <v>7311.35</v>
+        <v>3176.63</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30444</v>
+        <v>1.30277</v>
       </c>
       <c r="B44" t="n">
-        <v>7.29721</v>
+        <v>3.13029</v>
       </c>
       <c r="C44" t="n">
-        <v>7297.21</v>
+        <v>3130.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.3354</v>
+        <v>1.3337</v>
       </c>
       <c r="B45" t="n">
-        <v>7.282229999999999</v>
+        <v>3.08676</v>
       </c>
       <c r="C45" t="n">
-        <v>7282.23</v>
+        <v>3086.76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36637</v>
+        <v>1.36464</v>
       </c>
       <c r="B46" t="n">
-        <v>7.26645</v>
+        <v>3.05277</v>
       </c>
       <c r="C46" t="n">
-        <v>7266.45</v>
+        <v>3052.77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39734</v>
+        <v>1.39557</v>
       </c>
       <c r="B47" t="n">
-        <v>7.249840000000001</v>
+        <v>2.9724</v>
       </c>
       <c r="C47" t="n">
-        <v>7249.84</v>
+        <v>2972.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42831</v>
+        <v>1.42646</v>
       </c>
       <c r="B48" t="n">
-        <v>7.23218</v>
+        <v>2.94188</v>
       </c>
       <c r="C48" t="n">
-        <v>7232.18</v>
+        <v>2941.88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45928</v>
+        <v>1.4569</v>
       </c>
       <c r="B49" t="n">
-        <v>7.21333</v>
+        <v>2.8755</v>
       </c>
       <c r="C49" t="n">
-        <v>7213.33</v>
+        <v>2875.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49024</v>
+        <v>1.48752</v>
       </c>
       <c r="B50" t="n">
-        <v>7.193390000000001</v>
+        <v>2.81205</v>
       </c>
       <c r="C50" t="n">
-        <v>7193.39</v>
+        <v>2812.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52121</v>
+        <v>1.5186</v>
       </c>
       <c r="B51" t="n">
-        <v>7.172359999999999</v>
+        <v>2.7695</v>
       </c>
       <c r="C51" t="n">
-        <v>7172.36</v>
+        <v>2769.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55218</v>
+        <v>1.54962</v>
       </c>
       <c r="B52" t="n">
-        <v>7.15024</v>
+        <v>2.72862</v>
       </c>
       <c r="C52" t="n">
-        <v>7150.24</v>
+        <v>2728.62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58314</v>
+        <v>1.5807</v>
       </c>
       <c r="B53" t="n">
-        <v>7.127</v>
+        <v>2.67319</v>
       </c>
       <c r="C53" t="n">
-        <v>7127</v>
+        <v>2673.19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61411</v>
+        <v>1.61205</v>
       </c>
       <c r="B54" t="n">
-        <v>7.10253</v>
+        <v>2.64414</v>
       </c>
       <c r="C54" t="n">
-        <v>7102.53</v>
+        <v>2644.14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64508</v>
+        <v>1.64341</v>
       </c>
       <c r="B55" t="n">
-        <v>7.0769</v>
+        <v>2.60556</v>
       </c>
       <c r="C55" t="n">
-        <v>7076.9</v>
+        <v>2605.56</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67605</v>
+        <v>1.67477</v>
       </c>
       <c r="B56" t="n">
-        <v>7.04983</v>
+        <v>2.56843</v>
       </c>
       <c r="C56" t="n">
-        <v>7049.83</v>
+        <v>2568.43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70694</v>
+        <v>1.70611</v>
       </c>
       <c r="B57" t="n">
-        <v>7.02137</v>
+        <v>2.53324</v>
       </c>
       <c r="C57" t="n">
-        <v>7021.37</v>
+        <v>2533.24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73796</v>
+        <v>1.73742</v>
       </c>
       <c r="B58" t="n">
-        <v>6.99128</v>
+        <v>2.48909</v>
       </c>
       <c r="C58" t="n">
-        <v>6991.28</v>
+        <v>2489.09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76899</v>
+        <v>1.76815</v>
       </c>
       <c r="B59" t="n">
-        <v>6.959600000000001</v>
+        <v>2.45683</v>
       </c>
       <c r="C59" t="n">
-        <v>6959.6</v>
+        <v>2456.83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.7999</v>
+        <v>1.79911</v>
       </c>
       <c r="B60" t="n">
-        <v>6.92633</v>
+        <v>2.41731</v>
       </c>
       <c r="C60" t="n">
-        <v>6926.33</v>
+        <v>2417.31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83101</v>
+        <v>1.83036</v>
       </c>
       <c r="B61" t="n">
-        <v>6.89109</v>
+        <v>2.39296</v>
       </c>
       <c r="C61" t="n">
-        <v>6891.09</v>
+        <v>2392.96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86195</v>
+        <v>1.86114</v>
       </c>
       <c r="B62" t="n">
-        <v>6.854229999999999</v>
+        <v>2.35237</v>
       </c>
       <c r="C62" t="n">
-        <v>6854.23</v>
+        <v>2352.37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89299</v>
+        <v>1.89206</v>
       </c>
       <c r="B63" t="n">
-        <v>6.815270000000001</v>
+        <v>2.32556</v>
       </c>
       <c r="C63" t="n">
-        <v>6815.27</v>
+        <v>2325.56</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92395</v>
+        <v>1.92337</v>
       </c>
       <c r="B64" t="n">
-        <v>6.774310000000001</v>
+        <v>2.29651</v>
       </c>
       <c r="C64" t="n">
-        <v>6774.31</v>
+        <v>2296.51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95495</v>
+        <v>1.95427</v>
       </c>
       <c r="B65" t="n">
-        <v>6.7312</v>
+        <v>2.27129</v>
       </c>
       <c r="C65" t="n">
-        <v>6731.2</v>
+        <v>2271.29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98602</v>
+        <v>1.98483</v>
       </c>
       <c r="B66" t="n">
-        <v>6.685770000000001</v>
+        <v>2.23887</v>
       </c>
       <c r="C66" t="n">
-        <v>6685.77</v>
+        <v>2238.87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01682</v>
+        <v>2.01619</v>
       </c>
       <c r="B67" t="n">
-        <v>6.63834</v>
+        <v>2.21884</v>
       </c>
       <c r="C67" t="n">
-        <v>6638.34</v>
+        <v>2218.84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04801</v>
+        <v>2.04781</v>
       </c>
       <c r="B68" t="n">
-        <v>6.588010000000001</v>
+        <v>2.19397</v>
       </c>
       <c r="C68" t="n">
-        <v>6588.01</v>
+        <v>2193.97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07905</v>
+        <v>2.07844</v>
       </c>
       <c r="B69" t="n">
-        <v>6.535810000000001</v>
+        <v>2.17234</v>
       </c>
       <c r="C69" t="n">
-        <v>6535.81</v>
+        <v>2172.34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10998</v>
+        <v>2.10856</v>
       </c>
       <c r="B70" t="n">
-        <v>6.48075</v>
+        <v>2.15532</v>
       </c>
       <c r="C70" t="n">
-        <v>6480.75</v>
+        <v>2155.32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14094</v>
+        <v>2.1403</v>
       </c>
       <c r="B71" t="n">
-        <v>6.42341</v>
+        <v>2.1304</v>
       </c>
       <c r="C71" t="n">
-        <v>6423.41</v>
+        <v>2130.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17209</v>
+        <v>2.17202</v>
       </c>
       <c r="B72" t="n">
-        <v>6.36365</v>
+        <v>2.10694</v>
       </c>
       <c r="C72" t="n">
-        <v>6363.65</v>
+        <v>2106.94</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.203</v>
+        <v>2.20245</v>
       </c>
       <c r="B73" t="n">
-        <v>6.30124</v>
+        <v>2.08967</v>
       </c>
       <c r="C73" t="n">
-        <v>6301.24</v>
+        <v>2089.67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23384</v>
+        <v>2.23287</v>
       </c>
       <c r="B74" t="n">
-        <v>6.237130000000001</v>
+        <v>2.08158</v>
       </c>
       <c r="C74" t="n">
-        <v>6237.13</v>
+        <v>2081.58</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.2652</v>
+        <v>2.26406</v>
       </c>
       <c r="B75" t="n">
-        <v>6.17025</v>
+        <v>2.07047</v>
       </c>
       <c r="C75" t="n">
-        <v>6170.25</v>
+        <v>2070.47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29575</v>
+        <v>2.2958</v>
       </c>
       <c r="B76" t="n">
-        <v>6.10222</v>
+        <v>2.04068</v>
       </c>
       <c r="C76" t="n">
-        <v>6102.22</v>
+        <v>2040.68</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32709</v>
+        <v>2.32652</v>
       </c>
       <c r="B77" t="n">
-        <v>6.03108</v>
+        <v>2.02204</v>
       </c>
       <c r="C77" t="n">
-        <v>6031.08</v>
+        <v>2022.04</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35781</v>
+        <v>2.35724</v>
       </c>
       <c r="B78" t="n">
-        <v>5.95934</v>
+        <v>2.01146</v>
       </c>
       <c r="C78" t="n">
-        <v>5959.34</v>
+        <v>2011.46</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38898</v>
+        <v>2.38796</v>
       </c>
       <c r="B79" t="n">
-        <v>5.88467</v>
+        <v>2.00708</v>
       </c>
       <c r="C79" t="n">
-        <v>5884.67</v>
+        <v>2007.08</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41981</v>
+        <v>2.41917</v>
       </c>
       <c r="B80" t="n">
-        <v>5.80942</v>
+        <v>1.99224</v>
       </c>
       <c r="C80" t="n">
-        <v>5809.42</v>
+        <v>1992.24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.4511</v>
+        <v>2.45032</v>
       </c>
       <c r="B81" t="n">
-        <v>5.731890000000001</v>
+        <v>1.97242</v>
       </c>
       <c r="C81" t="n">
-        <v>5731.89</v>
+        <v>1972.42</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48125</v>
+        <v>2.48141</v>
       </c>
       <c r="B82" t="n">
-        <v>5.655220000000001</v>
+        <v>1.95308</v>
       </c>
       <c r="C82" t="n">
-        <v>5655.22</v>
+        <v>1953.08</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51112</v>
+        <v>2.51249</v>
       </c>
       <c r="B83" t="n">
-        <v>5.57941</v>
+        <v>1.93874</v>
       </c>
       <c r="C83" t="n">
-        <v>5579.41</v>
+        <v>1938.74</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54332</v>
+        <v>2.54298</v>
       </c>
       <c r="B84" t="n">
-        <v>5.49568</v>
+        <v>1.92896</v>
       </c>
       <c r="C84" t="n">
-        <v>5495.68</v>
+        <v>1928.96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57532</v>
+        <v>2.57278</v>
       </c>
       <c r="B85" t="n">
-        <v>5.413180000000001</v>
+        <v>1.90371</v>
       </c>
       <c r="C85" t="n">
-        <v>5413.18</v>
+        <v>1903.71</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60613</v>
+        <v>2.60246</v>
       </c>
       <c r="B86" t="n">
-        <v>5.33244</v>
+        <v>1.88978</v>
       </c>
       <c r="C86" t="n">
-        <v>5332.44</v>
+        <v>1889.78</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63653</v>
+        <v>2.63528</v>
       </c>
       <c r="B87" t="n">
-        <v>5.25328</v>
+        <v>1.90635</v>
       </c>
       <c r="C87" t="n">
-        <v>5253.28</v>
+        <v>1906.35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66627</v>
+        <v>2.66855</v>
       </c>
       <c r="B88" t="n">
-        <v>5.17608</v>
+        <v>1.89411</v>
       </c>
       <c r="C88" t="n">
-        <v>5176.08</v>
+        <v>1894.11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69738</v>
+        <v>2.70183</v>
       </c>
       <c r="B89" t="n">
-        <v>5.09459</v>
+        <v>1.87596</v>
       </c>
       <c r="C89" t="n">
-        <v>5094.59</v>
+        <v>1875.96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.7303</v>
+        <v>2.73511</v>
       </c>
       <c r="B90" t="n">
-        <v>5.0104</v>
+        <v>1.88711</v>
       </c>
       <c r="C90" t="n">
-        <v>5010.4</v>
+        <v>1887.11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76141</v>
+        <v>2.76839</v>
       </c>
       <c r="B91" t="n">
-        <v>4.92877</v>
+        <v>1.88981</v>
       </c>
       <c r="C91" t="n">
-        <v>4928.77</v>
+        <v>1889.81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79249</v>
+        <v>2.80074</v>
       </c>
       <c r="B92" t="n">
-        <v>4.84903</v>
+        <v>1.87843</v>
       </c>
       <c r="C92" t="n">
-        <v>4849.03</v>
+        <v>1878.43</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82303</v>
+        <v>2.83158</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77133</v>
+        <v>1.86638</v>
       </c>
       <c r="C93" t="n">
-        <v>4771.33</v>
+        <v>1866.38</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85228</v>
+        <v>2.8623</v>
       </c>
       <c r="B94" t="n">
-        <v>4.6958</v>
+        <v>1.85612</v>
       </c>
       <c r="C94" t="n">
-        <v>4695.8</v>
+        <v>1856.12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88154</v>
+        <v>2.89302</v>
       </c>
       <c r="B95" t="n">
-        <v>4.621939999999999</v>
+        <v>1.8537</v>
       </c>
       <c r="C95" t="n">
-        <v>4621.94</v>
+        <v>1853.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91495</v>
+        <v>2.92374</v>
       </c>
       <c r="B96" t="n">
-        <v>4.538489999999999</v>
+        <v>1.84988</v>
       </c>
       <c r="C96" t="n">
-        <v>4538.49</v>
+        <v>1849.88</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94695</v>
+        <v>2.95446</v>
       </c>
       <c r="B97" t="n">
-        <v>4.45711</v>
+        <v>1.84799</v>
       </c>
       <c r="C97" t="n">
-        <v>4457.11</v>
+        <v>1847.99</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97896</v>
+        <v>2.98518</v>
       </c>
       <c r="B98" t="n">
-        <v>4.37795</v>
+        <v>1.83752</v>
       </c>
       <c r="C98" t="n">
-        <v>4377.95</v>
+        <v>1837.52</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.0107</v>
+        <v>3.0159</v>
       </c>
       <c r="B99" t="n">
-        <v>4.30097</v>
+        <v>1.81907</v>
       </c>
       <c r="C99" t="n">
-        <v>4300.97</v>
+        <v>1819.07</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04057</v>
+        <v>3.04641</v>
       </c>
       <c r="B100" t="n">
-        <v>4.22601</v>
+        <v>1.80452</v>
       </c>
       <c r="C100" t="n">
-        <v>4226.01</v>
+        <v>1804.52</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07044</v>
+        <v>3.07557</v>
       </c>
       <c r="B101" t="n">
-        <v>4.15333</v>
+        <v>1.81033</v>
       </c>
       <c r="C101" t="n">
-        <v>4153.33</v>
+        <v>1810.33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.1003</v>
+        <v>3.10377</v>
       </c>
       <c r="B102" t="n">
-        <v>4.08248</v>
+        <v>1.80592</v>
       </c>
       <c r="C102" t="n">
-        <v>4082.48</v>
+        <v>1805.92</v>
       </c>
     </row>
   </sheetData>
